--- a/pygame/40k_sim_workbook.xlsx
+++ b/pygame/40k_sim_workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\git\40k\pygame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B327F5B1-B353-4E9D-A98D-6A7E2F936364}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A67486A-638E-4631-A641-CF737ECD6134}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="6465" activeTab="2" xr2:uid="{25CACC89-7CFE-40F5-86BB-4DBD087764E6}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
   <si>
     <t>Weapon</t>
   </si>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>Radius</t>
+  </si>
+  <si>
+    <t>Plague Marine</t>
+  </si>
+  <si>
+    <t>Plague Champion</t>
   </si>
 </sst>
 </file>
@@ -1505,11 +1511,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC9FF83-A4B4-495A-8CD6-852B5A72C621}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1801,6 +1807,76 @@
         <v>6</v>
       </c>
       <c r="L10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="L14">
         <v>12</v>
       </c>
     </row>

--- a/pygame/40k_sim_workbook.xlsx
+++ b/pygame/40k_sim_workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\git\40k\pygame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A67486A-638E-4631-A641-CF737ECD6134}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDE814A-011D-41D5-9621-E032F05E42FA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="6465" activeTab="2" xr2:uid="{25CACC89-7CFE-40F5-86BB-4DBD087764E6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="6465" xr2:uid="{25CACC89-7CFE-40F5-86BB-4DBD087764E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Templar Ranged Weapons" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Templar Models" sheetId="2" r:id="rId3"/>
     <sheet name="Army Sheet" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -671,7 +671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDAFB37-BC4F-43E6-8574-A43CDCD4006E}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
@@ -1513,7 +1513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC9FF83-A4B4-495A-8CD6-852B5A72C621}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>

--- a/pygame/40k_sim_workbook.xlsx
+++ b/pygame/40k_sim_workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\git\40k\pygame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDE814A-011D-41D5-9621-E032F05E42FA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01311684-421D-44EA-ABCF-294CF2F6B71A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="6465" xr2:uid="{25CACC89-7CFE-40F5-86BB-4DBD087764E6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="6465" activeTab="1" xr2:uid="{25CACC89-7CFE-40F5-86BB-4DBD087764E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Templar Ranged Weapons" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>Weapon</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>Plague Champion</t>
+  </si>
+  <si>
+    <t>CCW</t>
   </si>
 </sst>
 </file>
@@ -319,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -355,6 +358,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,9 +683,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDAFB37-BC4F-43E6-8574-A43CDCD4006E}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,14 +1382,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9B6098-EF80-434F-8A4C-B8A7BE87648E}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
@@ -1386,92 +1399,104 @@
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="15">
+        <v>1</v>
+      </c>
+      <c r="B1" s="15">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="C1" s="15">
+        <v>3</v>
+      </c>
+      <c r="D1" s="15">
+        <v>4</v>
+      </c>
+      <c r="E1" s="15">
+        <v>5</v>
+      </c>
+      <c r="F1" s="15">
+        <v>6</v>
+      </c>
+      <c r="G1" s="15">
+        <v>7</v>
+      </c>
+      <c r="H1" s="15">
+        <v>8</v>
+      </c>
+      <c r="I1" s="15">
+        <v>9</v>
+      </c>
+      <c r="J1" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="8">
-        <v>-3</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
-        <v>-1</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
+        <v>59</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="G4" s="2"/>
@@ -1480,6 +1505,43 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="8">
+        <v>-3</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>62</v>
       </c>
     </row>
